--- a/forecast_summary_B083RVN2VG.xlsx
+++ b/forecast_summary_B083RVN2VG.xlsx
@@ -488,7 +488,7 @@
         <v>152.4554252729202</v>
       </c>
       <c r="D2" t="n">
-        <v>191.4144174618348</v>
+        <v>190.0910339471775</v>
       </c>
       <c r="E2" t="n">
         <v>104</v>
@@ -518,13 +518,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C3" t="n">
         <v>195.1748744888661</v>
       </c>
       <c r="D3" t="n">
-        <v>230.638589256635</v>
+        <v>233.3275293256467</v>
       </c>
       <c r="E3" t="n">
         <v>67</v>
@@ -554,13 +554,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C4" t="n">
         <v>200.216905685073</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2046755780689</v>
+        <v>240.8982021110415</v>
       </c>
       <c r="E4" t="n">
         <v>60</v>
@@ -590,13 +590,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" t="n">
         <v>165.6138375330004</v>
       </c>
       <c r="D5" t="n">
-        <v>206.2250480492322</v>
+        <v>203.2885980182523</v>
       </c>
       <c r="E5" t="n">
         <v>68</v>
@@ -626,13 +626,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" t="n">
         <v>125.2903206893107</v>
       </c>
       <c r="D6" t="n">
-        <v>162.4066031865327</v>
+        <v>162.8886632926573</v>
       </c>
       <c r="E6" t="n">
         <v>55</v>
@@ -668,7 +668,7 @@
         <v>108.2391577836601</v>
       </c>
       <c r="D7" t="n">
-        <v>145.778868942673</v>
+        <v>146.8522370952435</v>
       </c>
       <c r="E7" t="n">
         <v>53</v>
@@ -704,7 +704,7 @@
         <v>108.9587251086184</v>
       </c>
       <c r="D8" t="n">
-        <v>147.4189044716754</v>
+        <v>146.537376583008</v>
       </c>
       <c r="E8" t="n">
         <v>54</v>
@@ -734,13 +734,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" t="n">
         <v>105.9050127804263</v>
       </c>
       <c r="D9" t="n">
-        <v>141.9529185457743</v>
+        <v>141.0210774705989</v>
       </c>
       <c r="E9" t="n">
         <v>52</v>
@@ -776,7 +776,7 @@
         <v>98.43921378240555</v>
       </c>
       <c r="D10" t="n">
-        <v>136.2936685104605</v>
+        <v>136.1640153028027</v>
       </c>
       <c r="E10" t="n">
         <v>51</v>
@@ -806,13 +806,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="n">
         <v>107.9051862151046</v>
       </c>
       <c r="D11" t="n">
-        <v>148.5052123286437</v>
+        <v>146.252532241961</v>
       </c>
       <c r="E11" t="n">
         <v>54</v>
@@ -848,7 +848,7 @@
         <v>139.7750056808643</v>
       </c>
       <c r="D12" t="n">
-        <v>178.6808169980723</v>
+        <v>175.5692787002968</v>
       </c>
       <c r="E12" t="n">
         <v>63</v>
@@ -884,7 +884,7 @@
         <v>161.925826857676</v>
       </c>
       <c r="D13" t="n">
-        <v>199.525825663797</v>
+        <v>200.029598337419</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -914,13 +914,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" t="n">
         <v>137.2814296358182</v>
       </c>
       <c r="D14" t="n">
-        <v>174.1076501092204</v>
+        <v>176.6062986051131</v>
       </c>
       <c r="E14" t="n">
         <v>61</v>
@@ -950,13 +950,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" t="n">
         <v>74.91938631222418</v>
       </c>
       <c r="D15" t="n">
-        <v>111.1136996715692</v>
+        <v>116.1634683976632</v>
       </c>
       <c r="E15" t="n">
         <v>59</v>
@@ -992,7 +992,7 @@
         <v>30.88385624800652</v>
       </c>
       <c r="D16" t="n">
-        <v>67.09970927942314</v>
+        <v>68.45867424498672</v>
       </c>
       <c r="E16" t="n">
         <v>59</v>
@@ -1028,7 +1028,7 @@
         <v>48.26294095546403</v>
       </c>
       <c r="D17" t="n">
-        <v>83.4090116316423</v>
+        <v>83.86851019117597</v>
       </c>
       <c r="E17" t="n">
         <v>59</v>
@@ -1064,7 +1064,7 @@
         <v>105.5419904717432</v>
       </c>
       <c r="D18" t="n">
-        <v>145.187794561479</v>
+        <v>144.5568439352778</v>
       </c>
       <c r="E18" t="n">
         <v>56</v>
@@ -1100,7 +1100,7 @@
         <v>138.6671491667557</v>
       </c>
       <c r="D19" t="n">
-        <v>176.3171266723292</v>
+        <v>176.2469300397337</v>
       </c>
       <c r="E19" t="n">
         <v>55</v>
@@ -1136,7 +1136,7 @@
         <v>113.8976213917097</v>
       </c>
       <c r="D20" t="n">
-        <v>153.6132183226802</v>
+        <v>152.7115243547536</v>
       </c>
       <c r="E20" t="n">
         <v>61</v>
@@ -1172,7 +1172,7 @@
         <v>64.46966010339058</v>
       </c>
       <c r="D21" t="n">
-        <v>101.9866369065423</v>
+        <v>103.5775184397716</v>
       </c>
       <c r="E21" t="n">
         <v>54</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2140</t>
+          <t>2143</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>1253</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>760</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>212</t>
         </is>
       </c>
     </row>

--- a/forecast_summary_B083RVN2VG.xlsx
+++ b/forecast_summary_B083RVN2VG.xlsx
@@ -482,13 +482,13 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C2" t="n">
         <v>152.4554252729202</v>
       </c>
       <c r="D2" t="n">
-        <v>190.0910339471775</v>
+        <v>190.0105585233003</v>
       </c>
       <c r="E2" t="n">
         <v>104</v>
@@ -518,13 +518,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C3" t="n">
         <v>195.1748744888661</v>
       </c>
       <c r="D3" t="n">
-        <v>233.3275293256467</v>
+        <v>230.6125788791499</v>
       </c>
       <c r="E3" t="n">
         <v>67</v>
@@ -554,13 +554,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C4" t="n">
         <v>200.216905685073</v>
       </c>
       <c r="D4" t="n">
-        <v>240.8982021110415</v>
+        <v>242.1343721060508</v>
       </c>
       <c r="E4" t="n">
         <v>60</v>
@@ -590,13 +590,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C5" t="n">
         <v>165.6138375330004</v>
       </c>
       <c r="D5" t="n">
-        <v>203.2885980182523</v>
+        <v>203.1419490861759</v>
       </c>
       <c r="E5" t="n">
         <v>68</v>
@@ -626,13 +626,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C6" t="n">
         <v>125.2903206893107</v>
       </c>
       <c r="D6" t="n">
-        <v>162.8886632926573</v>
+        <v>161.8527659153472</v>
       </c>
       <c r="E6" t="n">
         <v>55</v>
@@ -662,13 +662,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C7" t="n">
         <v>108.2391577836601</v>
       </c>
       <c r="D7" t="n">
-        <v>146.8522370952435</v>
+        <v>146.2394001818248</v>
       </c>
       <c r="E7" t="n">
         <v>53</v>
@@ -698,13 +698,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C8" t="n">
         <v>108.9587251086184</v>
       </c>
       <c r="D8" t="n">
-        <v>146.537376583008</v>
+        <v>147.2626534576676</v>
       </c>
       <c r="E8" t="n">
         <v>54</v>
@@ -734,13 +734,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" t="n">
         <v>105.9050127804263</v>
       </c>
       <c r="D9" t="n">
-        <v>141.0210774705989</v>
+        <v>140.6584573621667</v>
       </c>
       <c r="E9" t="n">
         <v>52</v>
@@ -770,13 +770,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C10" t="n">
         <v>98.43921378240555</v>
       </c>
       <c r="D10" t="n">
-        <v>136.1640153028027</v>
+        <v>138.8661352982439</v>
       </c>
       <c r="E10" t="n">
         <v>51</v>
@@ -806,13 +806,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C11" t="n">
         <v>107.9051862151046</v>
       </c>
       <c r="D11" t="n">
-        <v>146.252532241961</v>
+        <v>146.7788073467544</v>
       </c>
       <c r="E11" t="n">
         <v>54</v>
@@ -842,13 +842,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C12" t="n">
         <v>139.7750056808643</v>
       </c>
       <c r="D12" t="n">
-        <v>175.5692787002968</v>
+        <v>180.4028426200017</v>
       </c>
       <c r="E12" t="n">
         <v>63</v>
@@ -878,13 +878,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C13" t="n">
         <v>161.925826857676</v>
       </c>
       <c r="D13" t="n">
-        <v>200.029598337419</v>
+        <v>199.2766051799995</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -914,13 +914,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C14" t="n">
         <v>137.2814296358182</v>
       </c>
       <c r="D14" t="n">
-        <v>176.6062986051131</v>
+        <v>178.6075066048707</v>
       </c>
       <c r="E14" t="n">
         <v>61</v>
@@ -950,13 +950,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C15" t="n">
         <v>74.91938631222418</v>
       </c>
       <c r="D15" t="n">
-        <v>116.1634683976632</v>
+        <v>113.4058311032989</v>
       </c>
       <c r="E15" t="n">
         <v>59</v>
@@ -986,13 +986,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
         <v>30.88385624800652</v>
       </c>
       <c r="D16" t="n">
-        <v>68.45867424498672</v>
+        <v>68.60728020586035</v>
       </c>
       <c r="E16" t="n">
         <v>59</v>
@@ -1022,13 +1022,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
         <v>48.26294095546403</v>
       </c>
       <c r="D17" t="n">
-        <v>83.86851019117597</v>
+        <v>86.74124238157775</v>
       </c>
       <c r="E17" t="n">
         <v>59</v>
@@ -1058,13 +1058,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C18" t="n">
         <v>105.5419904717432</v>
       </c>
       <c r="D18" t="n">
-        <v>144.5568439352778</v>
+        <v>143.4952525993861</v>
       </c>
       <c r="E18" t="n">
         <v>56</v>
@@ -1094,13 +1094,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C19" t="n">
         <v>138.6671491667557</v>
       </c>
       <c r="D19" t="n">
-        <v>176.2469300397337</v>
+        <v>175.9412743963317</v>
       </c>
       <c r="E19" t="n">
         <v>55</v>
@@ -1130,13 +1130,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C20" t="n">
         <v>113.8976213917097</v>
       </c>
       <c r="D20" t="n">
-        <v>152.7115243547536</v>
+        <v>151.4000722827356</v>
       </c>
       <c r="E20" t="n">
         <v>61</v>
@@ -1166,13 +1166,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C21" t="n">
         <v>64.46966010339058</v>
       </c>
       <c r="D21" t="n">
-        <v>103.5775184397716</v>
+        <v>104.823211328307</v>
       </c>
       <c r="E21" t="n">
         <v>54</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2143</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>1191</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>728</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>204</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>35</t>
         </is>
       </c>
     </row>
